--- a/Assets/Excel/BuffData.xlsx
+++ b/Assets/Excel/BuffData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C39DC-F2B6-44E5-A33F-A55C476F44CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5C418-415E-4CCF-938E-061982F70D0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>AttackChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>麻醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,119 +301,7 @@
     <cellStyle name="60% - 着色 1" xfId="1" builtinId="32"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D533"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -916,32 +808,1919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="27" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" customWidth="1"/>
-    <col min="30" max="30" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.625" customWidth="1"/>
+    <col min="31" max="31" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="O2:AB32">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",O2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L8">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L11">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L15">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L19">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",L21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062A7C38-A5AA-452D-9CC9-CE4B02969F16}">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2753,1828 +4532,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062A7C38-A5AA-452D-9CC9-CE4B02969F16}">
-  <dimension ref="A1:AA21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-40</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:AA32">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",N2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",N2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K8">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K11">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K15">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K19">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/Excel/BuffData.xlsx
+++ b/Assets/Excel/BuffData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5C418-415E-4CCF-938E-061982F70D0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AC$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -954,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="b">
         <v>0</v>
@@ -1126,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2711,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062A7C38-A5AA-452D-9CC9-CE4B02969F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Excel/BuffData.xlsx
+++ b/Assets/Excel/BuffData.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>5</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>3</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>15</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1" t="b">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
         <v>5</v>

--- a/Assets/Excel/BuffData.xlsx
+++ b/Assets/Excel/BuffData.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="1" t="b">
         <v>0</v>
